--- a/resources/力扣面试算法汇总01.xlsx
+++ b/resources/力扣面试算法汇总01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\王一涵programThomas\LeetCode-Notes\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9551B8C0-D4BA-4619-B303-644C0A0A2FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63405D89-96A5-4C97-9796-1690AF397911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DD3B2D81-8DE6-41AA-914F-9D1974D309C5}"/>
   </bookViews>
@@ -345,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,8 +395,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +426,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -591,19 +606,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,6 +638,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -956,8 +968,8 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -968,591 +980,591 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="6"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="6"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="6"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="6"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="6"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="6"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8" t="s">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="6"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="6"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="5" t="s">
+      <c r="A53" s="8"/>
+      <c r="B53" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="6"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="6"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="6"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8" t="s">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="6"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="6"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="6"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="6"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8" t="s">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="6"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8" t="s">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="6"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="8" t="s">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="6"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8" t="s">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="6"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8" t="s">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="6"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="6"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="8"/>
+      <c r="B66" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="6"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8" t="s">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="6"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8" t="s">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="6"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="8"/>
+      <c r="B70" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="6"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8" t="s">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="6"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8" t="s">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="6"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8" t="s">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="6"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8" t="s">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="6"/>
+      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="6"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8" t="s">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="6"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
-      <c r="B77" s="5" t="s">
+      <c r="A77" s="9"/>
+      <c r="B77" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="6"/>
+      <c r="C77" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
